--- a/Documentos/xml's/backlog.xlsx
+++ b/Documentos/xml's/backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Desktop\20201-3adsa-grupo1\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Desktop\20201-3adsa-grupo1\Documentos\xml's\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BF9BAA-7F40-403F-82D4-387390CC0A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAFA320-9318-4F4D-BC1E-0ADA45476A10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="180">
   <si>
     <t>Proposto</t>
   </si>
@@ -489,15 +489,9 @@
     <t xml:space="preserve">Busca de localidades </t>
   </si>
   <si>
-    <t xml:space="preserve">Biblioteca de autocomplete </t>
-  </si>
-  <si>
     <t>Entregue</t>
   </si>
   <si>
-    <t>Projetado</t>
-  </si>
-  <si>
     <t>Passar API de Kotlin para JAVA</t>
   </si>
   <si>
@@ -571,6 +565,24 @@
   </si>
   <si>
     <t xml:space="preserve">Desenho de arquitetura de aplicação </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tela de Posts </t>
+  </si>
+  <si>
+    <t>Tela dedashboard do usuário</t>
+  </si>
+  <si>
+    <t>Diagrama de estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classe Post </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conexão com o  Heroku </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biblioteca Palces - API </t>
   </si>
 </sst>
 </file>
@@ -1385,6 +1397,10 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1454,10 +1470,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2309,10 +2321,10 @@
   <dimension ref="B1:V109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="F56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2363,22 +2375,22 @@
       <c r="U1" s="6"/>
     </row>
     <row r="2" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="68" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="68"/>
+      <c r="P2" s="70"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="10"/>
       <c r="T2" s="11" t="s">
@@ -2387,40 +2399,40 @@
       <c r="U2" s="6"/>
     </row>
     <row r="3" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="70"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="72"/>
       <c r="Q3" s="1"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
     </row>
     <row r="4" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="80" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="80"/>
+      <c r="P4" s="82"/>
       <c r="Q4" s="6"/>
       <c r="S4" s="12"/>
       <c r="T4" s="13"/>
@@ -2429,18 +2441,18 @@
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="D5" s="47"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="82"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
       <c r="Q5" s="14"/>
       <c r="S5" s="12"/>
       <c r="T5" s="13"/>
@@ -2449,18 +2461,18 @@
     <row r="6" spans="2:22" s="15" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="16"/>
       <c r="D6" s="48"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="84"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="86"/>
       <c r="Q6" s="17"/>
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
@@ -2586,7 +2598,7 @@
       <c r="S9" s="49"/>
       <c r="T9" s="49"/>
       <c r="U9" s="49" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2618,7 +2630,7 @@
       <c r="S10" s="49"/>
       <c r="T10" s="49"/>
       <c r="U10" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="2:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -2650,7 +2662,7 @@
       <c r="S11" s="49"/>
       <c r="T11" s="49"/>
       <c r="U11" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2682,7 +2694,7 @@
       <c r="S12" s="49"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2714,7 +2726,7 @@
       <c r="S13" s="49"/>
       <c r="T13" s="49"/>
       <c r="U13" s="49" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="2:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -2746,7 +2758,7 @@
       <c r="S14" s="49"/>
       <c r="T14" s="49"/>
       <c r="U14" s="49" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2778,7 +2790,7 @@
       <c r="S15" s="49"/>
       <c r="T15" s="49"/>
       <c r="U15" s="49" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2810,7 +2822,7 @@
       <c r="S16" s="49"/>
       <c r="T16" s="49"/>
       <c r="U16" s="49" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -2842,7 +2854,7 @@
       <c r="S17" s="49"/>
       <c r="T17" s="49"/>
       <c r="U17" s="49" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2874,7 +2886,7 @@
       <c r="S18" s="49"/>
       <c r="T18" s="49"/>
       <c r="U18" s="49" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2906,7 +2918,7 @@
       <c r="S19" s="49"/>
       <c r="T19" s="49"/>
       <c r="U19" s="49" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -2938,7 +2950,7 @@
       <c r="S20" s="49"/>
       <c r="T20" s="49"/>
       <c r="U20" s="49" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2970,7 +2982,7 @@
       <c r="S21" s="49"/>
       <c r="T21" s="49"/>
       <c r="U21" s="49" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2980,11 +2992,15 @@
       <c r="C22" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="49" t="s">
+        <v>175</v>
+      </c>
       <c r="E22" s="49"/>
       <c r="F22" s="49"/>
       <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
+      <c r="H22" s="49" t="s">
+        <v>20</v>
+      </c>
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
       <c r="K22" s="49"/>
@@ -2997,7 +3013,9 @@
       <c r="R22" s="49"/>
       <c r="S22" s="49"/>
       <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
+      <c r="U22" s="49" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="26">
@@ -3006,11 +3024,15 @@
       <c r="C23" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="49"/>
+      <c r="D23" s="49" t="s">
+        <v>174</v>
+      </c>
       <c r="E23" s="49"/>
       <c r="F23" s="49"/>
       <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
+      <c r="H23" s="49" t="s">
+        <v>20</v>
+      </c>
       <c r="I23" s="49"/>
       <c r="J23" s="49"/>
       <c r="K23" s="49"/>
@@ -3023,7 +3045,9 @@
       <c r="R23" s="49"/>
       <c r="S23" s="49"/>
       <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
+      <c r="U23" s="49" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="29">
@@ -3264,7 +3288,7 @@
       <c r="S32" s="49"/>
       <c r="T32" s="49"/>
       <c r="U32" s="49" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="2:21" s="28" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3328,7 +3352,7 @@
       <c r="S34" s="49"/>
       <c r="T34" s="49"/>
       <c r="U34" s="49" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3518,7 +3542,7 @@
       <c r="S41" s="49"/>
       <c r="T41" s="49"/>
       <c r="U41" s="49" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3550,7 +3574,7 @@
       <c r="S42" s="49"/>
       <c r="T42" s="49"/>
       <c r="U42" s="49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3582,7 +3606,7 @@
       <c r="S43" s="49"/>
       <c r="T43" s="49"/>
       <c r="U43" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3614,7 +3638,7 @@
       <c r="S44" s="49"/>
       <c r="T44" s="49"/>
       <c r="U44" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3646,7 +3670,7 @@
       <c r="S45" s="49"/>
       <c r="T45" s="49"/>
       <c r="U45" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3678,7 +3702,7 @@
       <c r="S46" s="49"/>
       <c r="T46" s="49"/>
       <c r="U46" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3710,7 +3734,7 @@
       <c r="S47" s="49"/>
       <c r="T47" s="49"/>
       <c r="U47" s="49" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3742,7 +3766,7 @@
       <c r="S48" s="49"/>
       <c r="T48" s="49"/>
       <c r="U48" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3774,7 +3798,7 @@
       <c r="S49" s="49"/>
       <c r="T49" s="49"/>
       <c r="U49" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3806,7 +3830,7 @@
       <c r="S50" s="49"/>
       <c r="T50" s="49"/>
       <c r="U50" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3838,7 +3862,7 @@
       <c r="S51" s="49"/>
       <c r="T51" s="49"/>
       <c r="U51" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3870,7 +3894,7 @@
       <c r="S52" s="49"/>
       <c r="T52" s="49"/>
       <c r="U52" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3881,7 +3905,7 @@
         <v>40</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E53" s="49"/>
       <c r="F53" s="49"/>
@@ -3901,7 +3925,9 @@
       <c r="R53" s="49"/>
       <c r="S53" s="49"/>
       <c r="T53" s="49"/>
-      <c r="U53" s="49"/>
+      <c r="U53" s="49" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="54" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="29">
@@ -3910,7 +3936,9 @@
       <c r="C54" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="49"/>
+      <c r="D54" s="49" t="s">
+        <v>176</v>
+      </c>
       <c r="E54" s="49"/>
       <c r="F54" s="49"/>
       <c r="G54" s="49"/>
@@ -3927,7 +3955,9 @@
       <c r="R54" s="49"/>
       <c r="S54" s="49"/>
       <c r="T54" s="49"/>
-      <c r="U54" s="49"/>
+      <c r="U54" s="49" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="26">
@@ -4066,7 +4096,7 @@
       <c r="C60" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="86"/>
+      <c r="D60" s="63"/>
       <c r="E60" s="49"/>
       <c r="F60" s="49"/>
       <c r="G60" s="49"/>
@@ -4112,7 +4142,7 @@
       <c r="S61" s="59"/>
       <c r="T61" s="59"/>
       <c r="U61" s="59" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4123,7 +4153,7 @@
         <v>88</v>
       </c>
       <c r="D62" s="49" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E62" s="49"/>
       <c r="F62" s="49"/>
@@ -4143,8 +4173,8 @@
       <c r="R62" s="49"/>
       <c r="S62" s="49"/>
       <c r="T62" s="49"/>
-      <c r="U62" s="49" t="s">
-        <v>0</v>
+      <c r="U62" s="59" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4154,8 +4184,8 @@
       <c r="C63" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D63" s="85" t="s">
-        <v>152</v>
+      <c r="D63" s="62" t="s">
+        <v>150</v>
       </c>
       <c r="E63" s="49"/>
       <c r="F63" s="49"/>
@@ -4175,7 +4205,9 @@
       <c r="R63" s="49"/>
       <c r="S63" s="49"/>
       <c r="T63" s="49"/>
-      <c r="U63" s="49"/>
+      <c r="U63" s="59" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="64" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="26">
@@ -4184,13 +4216,15 @@
       <c r="C64" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="85" t="s">
-        <v>153</v>
+      <c r="D64" s="62" t="s">
+        <v>151</v>
       </c>
       <c r="E64" s="49"/>
       <c r="F64" s="49"/>
       <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
+      <c r="H64" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I64" s="49"/>
       <c r="J64" s="49"/>
       <c r="K64" s="49"/>
@@ -4203,8 +4237,8 @@
       <c r="R64" s="49"/>
       <c r="S64" s="49"/>
       <c r="T64" s="49"/>
-      <c r="U64" s="49" t="s">
-        <v>0</v>
+      <c r="U64" s="59" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4215,12 +4249,14 @@
         <v>91</v>
       </c>
       <c r="D65" s="49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E65" s="49"/>
       <c r="F65" s="49"/>
       <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
+      <c r="H65" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I65" s="49"/>
       <c r="J65" s="49"/>
       <c r="K65" s="49"/>
@@ -4233,8 +4269,8 @@
       <c r="R65" s="49"/>
       <c r="S65" s="49"/>
       <c r="T65" s="49"/>
-      <c r="U65" s="49" t="s">
-        <v>0</v>
+      <c r="U65" s="59" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4242,15 +4278,17 @@
         <v>59</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D66" s="49" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E66" s="49"/>
       <c r="F66" s="49"/>
       <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
+      <c r="H66" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I66" s="49"/>
       <c r="J66" s="49"/>
       <c r="K66" s="49"/>
@@ -4263,22 +4301,26 @@
       <c r="R66" s="49"/>
       <c r="S66" s="49"/>
       <c r="T66" s="49"/>
-      <c r="U66" s="49"/>
+      <c r="U66" s="59" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="67" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="26">
         <v>60</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D67" s="49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E67" s="49"/>
       <c r="F67" s="49"/>
       <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
+      <c r="H67" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I67" s="49"/>
       <c r="J67" s="49"/>
       <c r="K67" s="49"/>
@@ -4291,22 +4333,26 @@
       <c r="R67" s="49"/>
       <c r="S67" s="49"/>
       <c r="T67" s="49"/>
-      <c r="U67" s="49"/>
+      <c r="U67" s="59" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="68" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="26">
         <v>61</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D68" s="49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E68" s="49"/>
       <c r="F68" s="49"/>
       <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
+      <c r="H68" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I68" s="49"/>
       <c r="J68" s="49"/>
       <c r="K68" s="49"/>
@@ -4319,8 +4365,8 @@
       <c r="R68" s="49"/>
       <c r="S68" s="49"/>
       <c r="T68" s="49"/>
-      <c r="U68" s="49" t="s">
-        <v>0</v>
+      <c r="U68" s="59" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4328,15 +4374,17 @@
         <v>62</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D69" s="49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E69" s="49"/>
       <c r="F69" s="49"/>
       <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
+      <c r="H69" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I69" s="49"/>
       <c r="J69" s="49"/>
       <c r="K69" s="49"/>
@@ -4349,8 +4397,8 @@
       <c r="R69" s="49"/>
       <c r="S69" s="49"/>
       <c r="T69" s="49"/>
-      <c r="U69" s="49" t="s">
-        <v>0</v>
+      <c r="U69" s="59" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4358,15 +4406,17 @@
         <v>63</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D70" s="49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E70" s="49"/>
       <c r="F70" s="49"/>
       <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
+      <c r="H70" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I70" s="49"/>
       <c r="J70" s="49"/>
       <c r="K70" s="49"/>
@@ -4379,8 +4429,8 @@
       <c r="R70" s="49"/>
       <c r="S70" s="49"/>
       <c r="T70" s="49"/>
-      <c r="U70" s="49" t="s">
-        <v>0</v>
+      <c r="U70" s="59" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4391,12 +4441,14 @@
         <v>92</v>
       </c>
       <c r="D71" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E71" s="49"/>
       <c r="F71" s="49"/>
       <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
+      <c r="H71" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I71" s="49"/>
       <c r="J71" s="49"/>
       <c r="K71" s="49"/>
@@ -4409,8 +4461,8 @@
       <c r="R71" s="49"/>
       <c r="S71" s="49"/>
       <c r="T71" s="49"/>
-      <c r="U71" s="49" t="s">
-        <v>0</v>
+      <c r="U71" s="59" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4421,12 +4473,14 @@
         <v>93</v>
       </c>
       <c r="D72" s="49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E72" s="49"/>
       <c r="F72" s="49"/>
       <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
+      <c r="H72" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I72" s="49"/>
       <c r="J72" s="49"/>
       <c r="K72" s="49"/>
@@ -4439,22 +4493,26 @@
       <c r="R72" s="49"/>
       <c r="S72" s="49"/>
       <c r="T72" s="49"/>
-      <c r="U72" s="49"/>
+      <c r="U72" s="59" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="73" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="26">
         <v>66</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D73" s="49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E73" s="49"/>
       <c r="F73" s="49"/>
       <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
+      <c r="H73" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I73" s="49"/>
       <c r="J73" s="49"/>
       <c r="K73" s="49"/>
@@ -4467,22 +4525,26 @@
       <c r="R73" s="49"/>
       <c r="S73" s="49"/>
       <c r="T73" s="49"/>
-      <c r="U73" s="49"/>
+      <c r="U73" s="59" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="74" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="26">
         <v>67</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D74" s="49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E74" s="49"/>
       <c r="F74" s="49"/>
       <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
+      <c r="H74" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I74" s="49"/>
       <c r="J74" s="49"/>
       <c r="K74" s="49"/>
@@ -4495,7 +4557,9 @@
       <c r="R74" s="49"/>
       <c r="S74" s="49"/>
       <c r="T74" s="49"/>
-      <c r="U74" s="49"/>
+      <c r="U74" s="59" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="75" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="29">
@@ -4505,12 +4569,14 @@
         <v>94</v>
       </c>
       <c r="D75" s="49" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E75" s="49"/>
       <c r="F75" s="49"/>
       <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
+      <c r="H75" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I75" s="49"/>
       <c r="J75" s="49"/>
       <c r="K75" s="49"/>
@@ -4523,8 +4589,8 @@
       <c r="R75" s="49"/>
       <c r="S75" s="49"/>
       <c r="T75" s="49"/>
-      <c r="U75" s="49" t="s">
-        <v>0</v>
+      <c r="U75" s="59" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4535,12 +4601,14 @@
         <v>95</v>
       </c>
       <c r="D76" s="49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E76" s="49"/>
       <c r="F76" s="49"/>
       <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
+      <c r="H76" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I76" s="49"/>
       <c r="J76" s="49"/>
       <c r="K76" s="49"/>
@@ -4553,8 +4621,8 @@
       <c r="R76" s="49"/>
       <c r="S76" s="49"/>
       <c r="T76" s="49"/>
-      <c r="U76" s="49" t="s">
-        <v>0</v>
+      <c r="U76" s="59" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4564,13 +4632,15 @@
       <c r="C77" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D77" s="85" t="s">
-        <v>173</v>
+      <c r="D77" s="62" t="s">
+        <v>171</v>
       </c>
       <c r="E77" s="49"/>
       <c r="F77" s="49"/>
       <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
+      <c r="H77" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I77" s="49"/>
       <c r="J77" s="49"/>
       <c r="K77" s="49"/>
@@ -4583,8 +4653,8 @@
       <c r="R77" s="49"/>
       <c r="S77" s="49"/>
       <c r="T77" s="49"/>
-      <c r="U77" s="49" t="s">
-        <v>0</v>
+      <c r="U77" s="59" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4594,11 +4664,15 @@
       <c r="C78" s="27">
         <v>4</v>
       </c>
-      <c r="D78" s="85"/>
+      <c r="D78" s="62" t="s">
+        <v>177</v>
+      </c>
       <c r="E78" s="49"/>
       <c r="F78" s="49"/>
       <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
+      <c r="H78" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I78" s="49"/>
       <c r="J78" s="49"/>
       <c r="K78" s="49"/>
@@ -4611,8 +4685,8 @@
       <c r="R78" s="49"/>
       <c r="S78" s="49"/>
       <c r="T78" s="49"/>
-      <c r="U78" s="49" t="s">
-        <v>0</v>
+      <c r="U78" s="59" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4622,11 +4696,15 @@
       <c r="C79" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D79" s="85"/>
+      <c r="D79" s="62" t="s">
+        <v>178</v>
+      </c>
       <c r="E79" s="49"/>
       <c r="F79" s="49"/>
       <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
+      <c r="H79" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I79" s="49"/>
       <c r="J79" s="49"/>
       <c r="K79" s="49"/>
@@ -4639,7 +4717,9 @@
       <c r="R79" s="49"/>
       <c r="S79" s="49"/>
       <c r="T79" s="49"/>
-      <c r="U79" s="49"/>
+      <c r="U79" s="59" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="80" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="26">
@@ -4648,7 +4728,7 @@
       <c r="C80" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D80" s="85"/>
+      <c r="D80" s="62"/>
       <c r="E80" s="49"/>
       <c r="F80" s="49"/>
       <c r="G80" s="49"/>
@@ -5040,7 +5120,9 @@
       <c r="E94" s="49"/>
       <c r="F94" s="49"/>
       <c r="G94" s="49"/>
-      <c r="H94" s="49"/>
+      <c r="H94" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I94" s="49"/>
       <c r="J94" s="49"/>
       <c r="K94" s="49"/>
@@ -5065,12 +5147,14 @@
         <v>105</v>
       </c>
       <c r="D95" s="49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E95" s="49"/>
       <c r="F95" s="49"/>
       <c r="G95" s="49"/>
-      <c r="H95" s="49"/>
+      <c r="H95" s="49" t="s">
+        <v>20</v>
+      </c>
       <c r="I95" s="49"/>
       <c r="J95" s="49"/>
       <c r="K95" s="49"/>
@@ -5100,7 +5184,9 @@
       <c r="E96" s="49"/>
       <c r="F96" s="49"/>
       <c r="G96" s="49"/>
-      <c r="H96" s="49"/>
+      <c r="H96" s="49" t="s">
+        <v>20</v>
+      </c>
       <c r="I96" s="49"/>
       <c r="J96" s="49"/>
       <c r="K96" s="49"/>
@@ -5130,7 +5216,9 @@
       <c r="E97" s="49"/>
       <c r="F97" s="49"/>
       <c r="G97" s="49"/>
-      <c r="H97" s="49"/>
+      <c r="H97" s="49" t="s">
+        <v>20</v>
+      </c>
       <c r="I97" s="49"/>
       <c r="J97" s="49"/>
       <c r="K97" s="49"/>
@@ -5155,12 +5243,14 @@
         <v>108</v>
       </c>
       <c r="D98" s="49" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="E98" s="49"/>
       <c r="F98" s="49"/>
       <c r="G98" s="49"/>
-      <c r="H98" s="49"/>
+      <c r="H98" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I98" s="49"/>
       <c r="J98" s="49"/>
       <c r="K98" s="49"/>
@@ -5416,7 +5506,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I40:I56 I8:I38 I61:I108" xr:uid="{CCF0E93B-E701-4254-9659-A3DB4D311139}">
       <formula1>"Máxima,Alta,Média,Baixa,Mínima"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H25 H61:H70 H91:H92 H31:H38 H94:H98 H79:H82 H40:H53" xr:uid="{C6DF508E-944E-4154-8F9D-531F7223BA80}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H94:H98 H40:H53 H91:H92 H31:H38 H61:H82 H8:H25" xr:uid="{C6DF508E-944E-4154-8F9D-531F7223BA80}">
       <formula1>$T$1:$T$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U8:U108" xr:uid="{896C6ADC-A470-4136-B4BB-7A8530057896}">

--- a/Documentos/xml's/backlog.xlsx
+++ b/Documentos/xml's/backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Desktop\20201-3adsa-grupo1\Documentos\xml's\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAFA320-9318-4F4D-BC1E-0ADA45476A10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82853F50-30F9-4A64-8F85-9ACF4C91A635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Proposto</t>
   </si>
@@ -582,7 +582,10 @@
     <t xml:space="preserve">Conexão com o  Heroku </t>
   </si>
   <si>
-    <t xml:space="preserve">Biblioteca Palces - API </t>
+    <t>Conexão com o Azure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biblioteca Places - API </t>
   </si>
 </sst>
 </file>
@@ -2321,10 +2324,10 @@
   <dimension ref="B1:V109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="F86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21:H23"/>
+      <selection pane="bottomRight" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4728,11 +4731,15 @@
       <c r="C80" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D80" s="62"/>
+      <c r="D80" s="62" t="s">
+        <v>179</v>
+      </c>
       <c r="E80" s="49"/>
       <c r="F80" s="49"/>
       <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
+      <c r="H80" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I80" s="49"/>
       <c r="J80" s="49"/>
       <c r="K80" s="49"/>
@@ -4745,7 +4752,9 @@
       <c r="R80" s="49"/>
       <c r="S80" s="49"/>
       <c r="T80" s="49"/>
-      <c r="U80" s="49"/>
+      <c r="U80" s="49" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="29">
@@ -5243,7 +5252,7 @@
         <v>108</v>
       </c>
       <c r="D98" s="49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E98" s="49"/>
       <c r="F98" s="49"/>
@@ -5506,7 +5515,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I40:I56 I8:I38 I61:I108" xr:uid="{CCF0E93B-E701-4254-9659-A3DB4D311139}">
       <formula1>"Máxima,Alta,Média,Baixa,Mínima"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H94:H98 H40:H53 H91:H92 H31:H38 H61:H82 H8:H25" xr:uid="{C6DF508E-944E-4154-8F9D-531F7223BA80}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H94:H98 H40:H53 H91:H92 H31:H38 H8:H25 H61:H82" xr:uid="{C6DF508E-944E-4154-8F9D-531F7223BA80}">
       <formula1>$T$1:$T$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U8:U108" xr:uid="{896C6ADC-A470-4136-B4BB-7A8530057896}">

--- a/Documentos/xml's/backlog.xlsx
+++ b/Documentos/xml's/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Desktop\20201-3adsa-grupo1\Documentos\xml's\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82853F50-30F9-4A64-8F85-9ACF4C91A635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192BB2F4-8988-457C-82E7-8B71EA2CF76F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="192">
   <si>
     <t>Proposto</t>
   </si>
@@ -387,9 +387,6 @@
     <t xml:space="preserve">Wireframes do site </t>
   </si>
   <si>
-    <t>Tela Home</t>
-  </si>
-  <si>
     <t>Estrutura do site em HTML</t>
   </si>
   <si>
@@ -402,9 +399,6 @@
     <t>Tela sobre a empresa</t>
   </si>
   <si>
-    <t xml:space="preserve">Tela de Itinerário </t>
-  </si>
-  <si>
     <t>Navbar (botões home/sobre/entrar)</t>
   </si>
   <si>
@@ -570,9 +564,6 @@
     <t xml:space="preserve">Tela de Posts </t>
   </si>
   <si>
-    <t>Tela dedashboard do usuário</t>
-  </si>
-  <si>
     <t>Diagrama de estado</t>
   </si>
   <si>
@@ -586,13 +577,55 @@
   </si>
   <si>
     <t xml:space="preserve">Biblioteca Places - API </t>
+  </si>
+  <si>
+    <t>Tela de criar viagem</t>
+  </si>
+  <si>
+    <t>Tela de Itinerário (mostrar viagenm atual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tela de últimas viagens </t>
+  </si>
+  <si>
+    <t>Visualizar filtros no mapa com base no centro da tela do usuário</t>
+  </si>
+  <si>
+    <t>Botão para selecionar filtros</t>
+  </si>
+  <si>
+    <t>Configurar MongoDB Atlas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento Final do projeto </t>
+  </si>
+  <si>
+    <t>Classe PilhaObj</t>
+  </si>
+  <si>
+    <t>Classe FilaObj</t>
+  </si>
+  <si>
+    <t>Classe de leitura de arquivo txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementação da importação de arquivo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planílha UAT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deploy da API REST no Heroku </t>
+  </si>
+  <si>
+    <t>Deploy do FrontEnd no Azure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -722,6 +755,10 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1237,7 +1274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1472,6 +1509,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2324,10 +2373,10 @@
   <dimension ref="B1:V109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="F86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D100" sqref="D100"/>
+      <selection pane="bottomRight" activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2421,7 +2470,7 @@
     </row>
     <row r="4" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="73" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4" s="74"/>
       <c r="G4" s="74"/>
@@ -2580,7 +2629,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
@@ -2601,7 +2650,7 @@
       <c r="S9" s="49"/>
       <c r="T9" s="49"/>
       <c r="U9" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2633,7 +2682,7 @@
       <c r="S10" s="49"/>
       <c r="T10" s="49"/>
       <c r="U10" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="2:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -2665,7 +2714,7 @@
       <c r="S11" s="49"/>
       <c r="T11" s="49"/>
       <c r="U11" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2697,7 +2746,7 @@
       <c r="S12" s="49"/>
       <c r="T12" s="49"/>
       <c r="U12" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2708,12 +2757,12 @@
         <v>30</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
       <c r="G13" s="49"/>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="90" t="s">
         <v>20</v>
       </c>
       <c r="I13" s="49"/>
@@ -2729,7 +2778,7 @@
       <c r="S13" s="49"/>
       <c r="T13" s="49"/>
       <c r="U13" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="2:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -2740,12 +2789,12 @@
         <v>31</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
       <c r="G14" s="49"/>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="90" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="49"/>
@@ -2761,7 +2810,7 @@
       <c r="S14" s="49"/>
       <c r="T14" s="49"/>
       <c r="U14" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2771,13 +2820,13 @@
       <c r="C15" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49" t="s">
+      <c r="D15" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="49"/>
@@ -2793,7 +2842,7 @@
       <c r="S15" s="49"/>
       <c r="T15" s="49"/>
       <c r="U15" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2803,13 +2852,13 @@
       <c r="C16" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49" t="s">
+      <c r="D16" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="49"/>
@@ -2825,7 +2874,7 @@
       <c r="S16" s="49"/>
       <c r="T16" s="49"/>
       <c r="U16" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -2835,13 +2884,13 @@
       <c r="C17" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49" t="s">
+      <c r="D17" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="49"/>
@@ -2857,7 +2906,7 @@
       <c r="S17" s="49"/>
       <c r="T17" s="49"/>
       <c r="U17" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2867,13 +2916,13 @@
       <c r="C18" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49" t="s">
+      <c r="D18" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="89" t="s">
         <v>20</v>
       </c>
       <c r="I18" s="49"/>
@@ -2889,7 +2938,7 @@
       <c r="S18" s="49"/>
       <c r="T18" s="49"/>
       <c r="U18" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2899,13 +2948,13 @@
       <c r="C19" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49" t="s">
+      <c r="D19" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="89" t="s">
         <v>20</v>
       </c>
       <c r="I19" s="49"/>
@@ -2921,7 +2970,7 @@
       <c r="S19" s="49"/>
       <c r="T19" s="49"/>
       <c r="U19" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -2931,13 +2980,13 @@
       <c r="C20" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49" t="s">
+      <c r="D20" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="89" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="49"/>
@@ -2953,7 +3002,7 @@
       <c r="S20" s="49"/>
       <c r="T20" s="49"/>
       <c r="U20" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2963,13 +3012,13 @@
       <c r="C21" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49" t="s">
+      <c r="D21" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="87"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="89" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="49"/>
@@ -2985,7 +3034,7 @@
       <c r="S21" s="49"/>
       <c r="T21" s="49"/>
       <c r="U21" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2995,13 +3044,13 @@
       <c r="C22" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49" t="s">
+      <c r="D22" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="87"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="89" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="49"/>
@@ -3017,7 +3066,7 @@
       <c r="S22" s="49"/>
       <c r="T22" s="49"/>
       <c r="U22" s="49" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3027,13 +3076,13 @@
       <c r="C23" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49" t="s">
+      <c r="D23" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="87"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="89" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="49"/>
@@ -3049,7 +3098,7 @@
       <c r="S23" s="49"/>
       <c r="T23" s="49"/>
       <c r="U23" s="49" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3059,11 +3108,15 @@
       <c r="C24" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
+      <c r="D24" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="87"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="89" t="s">
+        <v>20</v>
+      </c>
       <c r="I24" s="49"/>
       <c r="J24" s="49"/>
       <c r="K24" s="49"/>
@@ -3076,7 +3129,9 @@
       <c r="R24" s="49"/>
       <c r="S24" s="49"/>
       <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
+      <c r="U24" s="49" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="25" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="26">
@@ -3085,11 +3140,15 @@
       <c r="C25" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
+      <c r="D25" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="87"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="89" t="s">
+        <v>20</v>
+      </c>
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
       <c r="K25" s="49"/>
@@ -3102,7 +3161,9 @@
       <c r="R25" s="49"/>
       <c r="S25" s="49"/>
       <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
+      <c r="U25" s="49" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="26" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="26">
@@ -3111,11 +3172,13 @@
       <c r="C26" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="89" t="s">
+        <v>20</v>
+      </c>
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
       <c r="K26" s="49"/>
@@ -3137,11 +3200,11 @@
       <c r="C27" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="89"/>
       <c r="I27" s="49"/>
       <c r="J27" s="49"/>
       <c r="K27" s="49"/>
@@ -3270,7 +3333,7 @@
         <v>67</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E32" s="49"/>
       <c r="F32" s="49"/>
@@ -3291,7 +3354,7 @@
       <c r="S32" s="49"/>
       <c r="T32" s="49"/>
       <c r="U32" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="2:21" s="28" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3302,7 +3365,7 @@
         <v>66</v>
       </c>
       <c r="D33" s="49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E33" s="49"/>
       <c r="F33" s="49"/>
@@ -3334,7 +3397,7 @@
         <v>68</v>
       </c>
       <c r="D34" s="49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E34" s="49"/>
       <c r="F34" s="49"/>
@@ -3355,7 +3418,7 @@
       <c r="S34" s="49"/>
       <c r="T34" s="49"/>
       <c r="U34" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3365,11 +3428,15 @@
       <c r="C35" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="49"/>
+      <c r="D35" s="49" t="s">
+        <v>183</v>
+      </c>
       <c r="E35" s="49"/>
       <c r="F35" s="49"/>
       <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
+      <c r="H35" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I35" s="49"/>
       <c r="J35" s="49"/>
       <c r="K35" s="49"/>
@@ -3382,7 +3449,9 @@
       <c r="R35" s="49"/>
       <c r="S35" s="49"/>
       <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
+      <c r="U35" s="49" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="36" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="29">
@@ -3524,7 +3593,7 @@
         <v>74</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E41" s="49"/>
       <c r="F41" s="49"/>
@@ -3545,7 +3614,7 @@
       <c r="S41" s="49"/>
       <c r="T41" s="49"/>
       <c r="U41" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3556,7 +3625,7 @@
         <v>75</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E42" s="49"/>
       <c r="F42" s="49"/>
@@ -3577,7 +3646,7 @@
       <c r="S42" s="49"/>
       <c r="T42" s="49"/>
       <c r="U42" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3588,7 +3657,7 @@
         <v>76</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="49"/>
@@ -3609,7 +3678,7 @@
       <c r="S43" s="49"/>
       <c r="T43" s="49"/>
       <c r="U43" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3620,7 +3689,7 @@
         <v>80</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="49"/>
@@ -3641,7 +3710,7 @@
       <c r="S44" s="49"/>
       <c r="T44" s="49"/>
       <c r="U44" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3652,7 +3721,7 @@
         <v>77</v>
       </c>
       <c r="D45" s="49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E45" s="49"/>
       <c r="F45" s="49"/>
@@ -3673,7 +3742,7 @@
       <c r="S45" s="49"/>
       <c r="T45" s="49"/>
       <c r="U45" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3684,7 +3753,7 @@
         <v>81</v>
       </c>
       <c r="D46" s="49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E46" s="49"/>
       <c r="F46" s="49"/>
@@ -3705,7 +3774,7 @@
       <c r="S46" s="49"/>
       <c r="T46" s="49"/>
       <c r="U46" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3716,7 +3785,7 @@
         <v>82</v>
       </c>
       <c r="D47" s="49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E47" s="49"/>
       <c r="F47" s="49"/>
@@ -3737,7 +3806,7 @@
       <c r="S47" s="49"/>
       <c r="T47" s="49"/>
       <c r="U47" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3748,7 +3817,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E48" s="49"/>
       <c r="F48" s="49"/>
@@ -3769,7 +3838,7 @@
       <c r="S48" s="49"/>
       <c r="T48" s="49"/>
       <c r="U48" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3780,7 +3849,7 @@
         <v>37</v>
       </c>
       <c r="D49" s="49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E49" s="49"/>
       <c r="F49" s="49"/>
@@ -3801,7 +3870,7 @@
       <c r="S49" s="49"/>
       <c r="T49" s="49"/>
       <c r="U49" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3812,7 +3881,7 @@
         <v>83</v>
       </c>
       <c r="D50" s="49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E50" s="49"/>
       <c r="F50" s="49"/>
@@ -3833,7 +3902,7 @@
       <c r="S50" s="49"/>
       <c r="T50" s="49"/>
       <c r="U50" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3844,7 +3913,7 @@
         <v>38</v>
       </c>
       <c r="D51" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E51" s="49"/>
       <c r="F51" s="49"/>
@@ -3865,7 +3934,7 @@
       <c r="S51" s="49"/>
       <c r="T51" s="49"/>
       <c r="U51" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3876,7 +3945,7 @@
         <v>39</v>
       </c>
       <c r="D52" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E52" s="49"/>
       <c r="F52" s="49"/>
@@ -3897,7 +3966,7 @@
       <c r="S52" s="49"/>
       <c r="T52" s="49"/>
       <c r="U52" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3908,7 +3977,7 @@
         <v>40</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E53" s="49"/>
       <c r="F53" s="49"/>
@@ -3929,7 +3998,7 @@
       <c r="S53" s="49"/>
       <c r="T53" s="49"/>
       <c r="U53" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3940,12 +4009,14 @@
         <v>78</v>
       </c>
       <c r="D54" s="49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E54" s="49"/>
       <c r="F54" s="49"/>
       <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
+      <c r="H54" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I54" s="49"/>
       <c r="J54" s="49"/>
       <c r="K54" s="49"/>
@@ -3959,7 +4030,7 @@
       <c r="S54" s="49"/>
       <c r="T54" s="49"/>
       <c r="U54" s="49" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3969,11 +4040,15 @@
       <c r="C55" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="49"/>
+      <c r="D55" s="49" t="s">
+        <v>184</v>
+      </c>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
       <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
+      <c r="H55" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I55" s="49"/>
       <c r="J55" s="49"/>
       <c r="K55" s="49"/>
@@ -3986,7 +4061,9 @@
       <c r="R55" s="49"/>
       <c r="S55" s="49"/>
       <c r="T55" s="49"/>
-      <c r="U55" s="49"/>
+      <c r="U55" s="49" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="56" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="26">
@@ -3995,11 +4072,15 @@
       <c r="C56" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="49"/>
+      <c r="D56" s="49" t="s">
+        <v>189</v>
+      </c>
       <c r="E56" s="49"/>
       <c r="F56" s="49"/>
       <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
+      <c r="H56" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I56" s="49"/>
       <c r="J56" s="49"/>
       <c r="K56" s="49"/>
@@ -4012,7 +4093,9 @@
       <c r="R56" s="49"/>
       <c r="S56" s="49"/>
       <c r="T56" s="49"/>
-      <c r="U56" s="49"/>
+      <c r="U56" s="49" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="57" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="29">
@@ -4126,7 +4209,7 @@
         <v>87</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E61" s="59"/>
       <c r="F61" s="59"/>
@@ -4145,7 +4228,7 @@
       <c r="S61" s="59"/>
       <c r="T61" s="59"/>
       <c r="U61" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4156,7 +4239,7 @@
         <v>88</v>
       </c>
       <c r="D62" s="49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E62" s="49"/>
       <c r="F62" s="49"/>
@@ -4177,7 +4260,7 @@
       <c r="S62" s="49"/>
       <c r="T62" s="49"/>
       <c r="U62" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4188,7 +4271,7 @@
         <v>89</v>
       </c>
       <c r="D63" s="62" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E63" s="49"/>
       <c r="F63" s="49"/>
@@ -4209,7 +4292,7 @@
       <c r="S63" s="49"/>
       <c r="T63" s="49"/>
       <c r="U63" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4220,7 +4303,7 @@
         <v>90</v>
       </c>
       <c r="D64" s="62" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E64" s="49"/>
       <c r="F64" s="49"/>
@@ -4241,7 +4324,7 @@
       <c r="S64" s="49"/>
       <c r="T64" s="49"/>
       <c r="U64" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4252,7 +4335,7 @@
         <v>91</v>
       </c>
       <c r="D65" s="49" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E65" s="49"/>
       <c r="F65" s="49"/>
@@ -4273,7 +4356,7 @@
       <c r="S65" s="49"/>
       <c r="T65" s="49"/>
       <c r="U65" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4281,10 +4364,10 @@
         <v>59</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D66" s="49" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E66" s="49"/>
       <c r="F66" s="49"/>
@@ -4305,7 +4388,7 @@
       <c r="S66" s="49"/>
       <c r="T66" s="49"/>
       <c r="U66" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4313,10 +4396,10 @@
         <v>60</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D67" s="49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E67" s="49"/>
       <c r="F67" s="49"/>
@@ -4337,7 +4420,7 @@
       <c r="S67" s="49"/>
       <c r="T67" s="49"/>
       <c r="U67" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4345,10 +4428,10 @@
         <v>61</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D68" s="49" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E68" s="49"/>
       <c r="F68" s="49"/>
@@ -4369,7 +4452,7 @@
       <c r="S68" s="49"/>
       <c r="T68" s="49"/>
       <c r="U68" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4377,10 +4460,10 @@
         <v>62</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D69" s="49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E69" s="49"/>
       <c r="F69" s="49"/>
@@ -4401,7 +4484,7 @@
       <c r="S69" s="49"/>
       <c r="T69" s="49"/>
       <c r="U69" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4409,10 +4492,10 @@
         <v>63</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D70" s="49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E70" s="49"/>
       <c r="F70" s="49"/>
@@ -4433,7 +4516,7 @@
       <c r="S70" s="49"/>
       <c r="T70" s="49"/>
       <c r="U70" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4444,7 +4527,7 @@
         <v>92</v>
       </c>
       <c r="D71" s="49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E71" s="49"/>
       <c r="F71" s="49"/>
@@ -4465,7 +4548,7 @@
       <c r="S71" s="49"/>
       <c r="T71" s="49"/>
       <c r="U71" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4476,7 +4559,7 @@
         <v>93</v>
       </c>
       <c r="D72" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E72" s="49"/>
       <c r="F72" s="49"/>
@@ -4497,7 +4580,7 @@
       <c r="S72" s="49"/>
       <c r="T72" s="49"/>
       <c r="U72" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4505,10 +4588,10 @@
         <v>66</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D73" s="49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E73" s="49"/>
       <c r="F73" s="49"/>
@@ -4529,7 +4612,7 @@
       <c r="S73" s="49"/>
       <c r="T73" s="49"/>
       <c r="U73" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4537,10 +4620,10 @@
         <v>67</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D74" s="49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E74" s="49"/>
       <c r="F74" s="49"/>
@@ -4561,7 +4644,7 @@
       <c r="S74" s="49"/>
       <c r="T74" s="49"/>
       <c r="U74" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4572,7 +4655,7 @@
         <v>94</v>
       </c>
       <c r="D75" s="49" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E75" s="49"/>
       <c r="F75" s="49"/>
@@ -4593,7 +4676,7 @@
       <c r="S75" s="49"/>
       <c r="T75" s="49"/>
       <c r="U75" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4604,7 +4687,7 @@
         <v>95</v>
       </c>
       <c r="D76" s="49" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E76" s="49"/>
       <c r="F76" s="49"/>
@@ -4625,7 +4708,7 @@
       <c r="S76" s="49"/>
       <c r="T76" s="49"/>
       <c r="U76" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4636,7 +4719,7 @@
         <v>96</v>
       </c>
       <c r="D77" s="62" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E77" s="49"/>
       <c r="F77" s="49"/>
@@ -4657,7 +4740,7 @@
       <c r="S77" s="49"/>
       <c r="T77" s="49"/>
       <c r="U77" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4668,7 +4751,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="62" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E78" s="49"/>
       <c r="F78" s="49"/>
@@ -4689,7 +4772,7 @@
       <c r="S78" s="49"/>
       <c r="T78" s="49"/>
       <c r="U78" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4700,7 +4783,7 @@
         <v>47</v>
       </c>
       <c r="D79" s="62" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E79" s="49"/>
       <c r="F79" s="49"/>
@@ -4721,7 +4804,7 @@
       <c r="S79" s="49"/>
       <c r="T79" s="49"/>
       <c r="U79" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4732,7 +4815,7 @@
         <v>48</v>
       </c>
       <c r="D80" s="62" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E80" s="49"/>
       <c r="F80" s="49"/>
@@ -4752,8 +4835,8 @@
       <c r="R80" s="49"/>
       <c r="S80" s="49"/>
       <c r="T80" s="49"/>
-      <c r="U80" s="49" t="s">
-        <v>0</v>
+      <c r="U80" s="59" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4763,11 +4846,15 @@
       <c r="C81" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D81" s="49"/>
+      <c r="D81" s="49" t="s">
+        <v>185</v>
+      </c>
       <c r="E81" s="49"/>
       <c r="F81" s="49"/>
       <c r="G81" s="49"/>
-      <c r="H81" s="49"/>
+      <c r="H81" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I81" s="49"/>
       <c r="J81" s="49"/>
       <c r="K81" s="49"/>
@@ -4780,7 +4867,9 @@
       <c r="R81" s="49"/>
       <c r="S81" s="49"/>
       <c r="T81" s="49"/>
-      <c r="U81" s="49"/>
+      <c r="U81" s="59" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="82" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="26">
@@ -4789,11 +4878,15 @@
       <c r="C82" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="49"/>
+      <c r="D82" s="49" t="s">
+        <v>186</v>
+      </c>
       <c r="E82" s="49"/>
       <c r="F82" s="49"/>
       <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
+      <c r="H82" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I82" s="49"/>
       <c r="J82" s="49"/>
       <c r="K82" s="49"/>
@@ -4806,7 +4899,9 @@
       <c r="R82" s="49"/>
       <c r="S82" s="49"/>
       <c r="T82" s="49"/>
-      <c r="U82" s="49"/>
+      <c r="U82" s="59" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="83" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="26">
@@ -4815,11 +4910,15 @@
       <c r="C83" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="49"/>
+      <c r="D83" s="49" t="s">
+        <v>187</v>
+      </c>
       <c r="E83" s="49"/>
       <c r="F83" s="49"/>
       <c r="G83" s="49"/>
-      <c r="H83" s="49"/>
+      <c r="H83" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I83" s="49"/>
       <c r="J83" s="49"/>
       <c r="K83" s="49"/>
@@ -4832,7 +4931,9 @@
       <c r="R83" s="49"/>
       <c r="S83" s="49"/>
       <c r="T83" s="49"/>
-      <c r="U83" s="49"/>
+      <c r="U83" s="59" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="84" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="29">
@@ -4841,11 +4942,15 @@
       <c r="C84" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D84" s="49"/>
+      <c r="D84" s="49" t="s">
+        <v>188</v>
+      </c>
       <c r="E84" s="49"/>
       <c r="F84" s="49"/>
       <c r="G84" s="49"/>
-      <c r="H84" s="49"/>
+      <c r="H84" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I84" s="49"/>
       <c r="J84" s="49"/>
       <c r="K84" s="49"/>
@@ -4858,7 +4963,9 @@
       <c r="R84" s="49"/>
       <c r="S84" s="49"/>
       <c r="T84" s="49"/>
-      <c r="U84" s="49"/>
+      <c r="U84" s="59" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="85" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="26">
@@ -4998,7 +5105,7 @@
         <v>101</v>
       </c>
       <c r="D90" s="60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E90" s="59"/>
       <c r="F90" s="59"/>
@@ -5016,9 +5123,7 @@
       <c r="R90" s="59"/>
       <c r="S90" s="59"/>
       <c r="T90" s="59"/>
-      <c r="U90" s="59" t="s">
-        <v>0</v>
-      </c>
+      <c r="U90" s="59"/>
     </row>
     <row r="91" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="26">
@@ -5028,7 +5133,7 @@
         <v>102</v>
       </c>
       <c r="D91" s="49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E91" s="49"/>
       <c r="F91" s="49"/>
@@ -5048,8 +5153,8 @@
       <c r="R91" s="49"/>
       <c r="S91" s="49"/>
       <c r="T91" s="49"/>
-      <c r="U91" s="49" t="s">
-        <v>0</v>
+      <c r="U91" s="59" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -5060,7 +5165,7 @@
         <v>103</v>
       </c>
       <c r="D92" s="49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E92" s="49"/>
       <c r="F92" s="49"/>
@@ -5080,8 +5185,8 @@
       <c r="R92" s="49"/>
       <c r="S92" s="49"/>
       <c r="T92" s="49"/>
-      <c r="U92" s="49" t="s">
-        <v>0</v>
+      <c r="U92" s="59" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5092,7 +5197,7 @@
         <v>104</v>
       </c>
       <c r="D93" s="49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E93" s="49"/>
       <c r="F93" s="49"/>
@@ -5112,8 +5217,8 @@
       <c r="R93" s="49"/>
       <c r="S93" s="49"/>
       <c r="T93" s="49"/>
-      <c r="U93" s="49" t="s">
-        <v>0</v>
+      <c r="U93" s="59" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5124,7 +5229,7 @@
         <v>104</v>
       </c>
       <c r="D94" s="49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E94" s="49"/>
       <c r="F94" s="49"/>
@@ -5144,8 +5249,8 @@
       <c r="R94" s="49"/>
       <c r="S94" s="49"/>
       <c r="T94" s="49"/>
-      <c r="U94" s="49" t="s">
-        <v>0</v>
+      <c r="U94" s="59" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -5156,7 +5261,7 @@
         <v>105</v>
       </c>
       <c r="D95" s="49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E95" s="49"/>
       <c r="F95" s="49"/>
@@ -5176,8 +5281,8 @@
       <c r="R95" s="49"/>
       <c r="S95" s="49"/>
       <c r="T95" s="49"/>
-      <c r="U95" s="49" t="s">
-        <v>0</v>
+      <c r="U95" s="59" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5188,7 +5293,7 @@
         <v>106</v>
       </c>
       <c r="D96" s="49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E96" s="49"/>
       <c r="F96" s="49"/>
@@ -5208,8 +5313,8 @@
       <c r="R96" s="49"/>
       <c r="S96" s="49"/>
       <c r="T96" s="49"/>
-      <c r="U96" s="49" t="s">
-        <v>0</v>
+      <c r="U96" s="59" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5220,7 +5325,7 @@
         <v>107</v>
       </c>
       <c r="D97" s="49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E97" s="49"/>
       <c r="F97" s="49"/>
@@ -5240,8 +5345,8 @@
       <c r="R97" s="49"/>
       <c r="S97" s="49"/>
       <c r="T97" s="49"/>
-      <c r="U97" s="49" t="s">
-        <v>0</v>
+      <c r="U97" s="59" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5252,7 +5357,7 @@
         <v>108</v>
       </c>
       <c r="D98" s="49" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E98" s="49"/>
       <c r="F98" s="49"/>
@@ -5272,8 +5377,8 @@
       <c r="R98" s="49"/>
       <c r="S98" s="49"/>
       <c r="T98" s="49"/>
-      <c r="U98" s="49" t="s">
-        <v>0</v>
+      <c r="U98" s="59" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5283,11 +5388,15 @@
       <c r="C99" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="D99" s="49"/>
+      <c r="D99" s="49" t="s">
+        <v>190</v>
+      </c>
       <c r="E99" s="49"/>
       <c r="F99" s="49"/>
       <c r="G99" s="49"/>
-      <c r="H99" s="49"/>
+      <c r="H99" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I99" s="49"/>
       <c r="J99" s="49"/>
       <c r="K99" s="49"/>
@@ -5300,18 +5409,24 @@
       <c r="R99" s="49"/>
       <c r="S99" s="49"/>
       <c r="T99" s="49"/>
-      <c r="U99" s="49"/>
+      <c r="U99" s="59" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="100" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="26">
         <v>93</v>
       </c>
       <c r="C100" s="27"/>
-      <c r="D100" s="49"/>
+      <c r="D100" s="49" t="s">
+        <v>191</v>
+      </c>
       <c r="E100" s="49"/>
       <c r="F100" s="49"/>
       <c r="G100" s="49"/>
-      <c r="H100" s="49"/>
+      <c r="H100" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="I100" s="49"/>
       <c r="J100" s="49"/>
       <c r="K100" s="49"/>
@@ -5324,7 +5439,9 @@
       <c r="R100" s="49"/>
       <c r="S100" s="49"/>
       <c r="T100" s="49"/>
-      <c r="U100" s="49"/>
+      <c r="U100" s="49" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="26">
@@ -5515,7 +5632,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I40:I56 I8:I38 I61:I108" xr:uid="{CCF0E93B-E701-4254-9659-A3DB4D311139}">
       <formula1>"Máxima,Alta,Média,Baixa,Mínima"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H94:H98 H40:H53 H91:H92 H31:H38 H8:H25 H61:H82" xr:uid="{C6DF508E-944E-4154-8F9D-531F7223BA80}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H94:H100 H40:H56 H91:H92 H31:H38 H8:H26 H61:H84" xr:uid="{C6DF508E-944E-4154-8F9D-531F7223BA80}">
       <formula1>$T$1:$T$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U8:U108" xr:uid="{896C6ADC-A470-4136-B4BB-7A8530057896}">

--- a/Documentos/xml's/backlog.xlsx
+++ b/Documentos/xml's/backlog.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Desktop\20201-3adsa-grupo1\Documentos\xml's\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projeto\20201-3adsa-grupo1\Documentos\xml's\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192BB2F4-8988-457C-82E7-8B71EA2CF76F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="Documentação e Matriz (2)" sheetId="6" r:id="rId1"/>
+    <sheet name="Documentação e Matriz (3)" sheetId="8" r:id="rId1"/>
+    <sheet name="Documentação e Matriz (2)" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="198">
   <si>
     <t>Proposto</t>
   </si>
@@ -620,11 +620,29 @@
   <si>
     <t>Deploy do FrontEnd no Azure</t>
   </si>
+  <si>
+    <t>Aplicação mobile</t>
+  </si>
+  <si>
+    <t>Estrutura do app em kotlin</t>
+  </si>
+  <si>
+    <t>Wireframes do aplicativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Botões home/sobre/entrar</t>
+  </si>
+  <si>
+    <t>Sistema - API REST (???)</t>
+  </si>
+  <si>
+    <t>Passar API de JAVA para Kotlin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1274,7 +1292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1441,6 +1459,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1510,24 +1540,429 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1866,7 +2301,6 @@
         <sz val="14"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1999,6 +2433,72 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
+          <a:off x="361949" y="619125"/>
+          <a:ext cx="2894542" cy="467745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2199216</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>134370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88CC8281-347D-4E42-BD13-237E802C69DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
           <a:off x="361949" y="485775"/>
           <a:ext cx="2894542" cy="469106"/>
         </a:xfrm>
@@ -2023,27 +2523,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{96FF4854-D91D-45AE-BCE7-29864BAB7093}" name="Tabela24" displayName="Tabela24" ref="D7:U108" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
-  <autoFilter ref="D7:U108" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela242" displayName="Tabela242" ref="D7:U108" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
+  <autoFilter ref="D7:U108"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{46A9F449-8812-4C7E-83B2-8558148FD6ED}" name="Descrição do Requisito" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{E969E283-4A9B-4454-8052-36968E483B8E}" name="Objetivo / Estratégia de Negócio" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{CB73FB8B-5D1E-4350-AD5E-4C2B70610409}" name="Prioridade" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{BD23C5A0-DAB9-4372-8A5F-7A6D1DE9695C}" name="Versão do Requisito" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{433EF983-2A4A-4D03-A452-05B15D94CFFF}" name="Tipo Requisito " dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{D6617CCE-F153-4148-A8AC-AB299E4F6715}" name="Complexidade" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{BCE7955D-7A7E-47F8-A5B3-8CE541315008}" name="Solicitante" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{127A4554-2E48-4376-BAC2-0D668AFC6A14}" name="Responsável" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{E0C38607-E8F2-4EF5-B67F-E6A1518C688B}" name="Validador" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{761D8B70-B546-44C2-A9C3-34D1D42EEB2B}" name="Critérios de Aceitação" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{D7AA2C9F-1EAE-4622-BD95-116348C2DF44}" name="Dependência Internas entre Requisitos  (rastreabilidade)" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{170CB37E-AB5A-4453-9A7D-39A26F700473}" name="Dependências Externas entre Requisitos (Rastreabilidade)" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{6CE1D40C-ED71-45EB-8312-56B098849D79}" name="Data da Criação" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{55751B84-A3D9-46E8-A7E6-176BD566335F}" name="Data Última Alteração" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{6F89BD2E-5F55-4711-876C-D7857682CE4B}" name="Responsável pela última alteração" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{F783C365-73F2-4373-837E-D8DADB3F61F6}" name="Motivo Última Alteração" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{888359A4-7A9D-438C-B20B-1CE4AF2FB95E}" name="Documentação de Apoio" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{24584BE3-B457-4158-9710-72FEEF8EB908}" name="Situação do Requisito" dataDxfId="0"/>
+    <tableColumn id="1" name="Descrição do Requisito" dataDxfId="0"/>
+    <tableColumn id="2" name="Objetivo / Estratégia de Negócio" dataDxfId="17"/>
+    <tableColumn id="3" name="Prioridade" dataDxfId="16"/>
+    <tableColumn id="4" name="Versão do Requisito" dataDxfId="15"/>
+    <tableColumn id="7" name="Tipo Requisito " dataDxfId="14"/>
+    <tableColumn id="8" name="Complexidade" dataDxfId="13"/>
+    <tableColumn id="9" name="Solicitante" dataDxfId="12"/>
+    <tableColumn id="10" name="Responsável" dataDxfId="11"/>
+    <tableColumn id="11" name="Validador" dataDxfId="10"/>
+    <tableColumn id="12" name="Critérios de Aceitação" dataDxfId="9"/>
+    <tableColumn id="13" name="Dependência Internas entre Requisitos  (rastreabilidade)" dataDxfId="8"/>
+    <tableColumn id="14" name="Dependências Externas entre Requisitos (Rastreabilidade)" dataDxfId="7"/>
+    <tableColumn id="15" name="Data da Criação" dataDxfId="6"/>
+    <tableColumn id="16" name="Data Última Alteração" dataDxfId="5"/>
+    <tableColumn id="17" name="Responsável pela última alteração" dataDxfId="4"/>
+    <tableColumn id="18" name="Motivo Última Alteração" dataDxfId="3"/>
+    <tableColumn id="19" name="Documentação de Apoio" dataDxfId="2"/>
+    <tableColumn id="20" name="Situação do Requisito" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela24" displayName="Tabela24" ref="D7:U108" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
+  <autoFilter ref="D7:U108"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="Descrição do Requisito" dataDxfId="39"/>
+    <tableColumn id="2" name="Objetivo / Estratégia de Negócio" dataDxfId="38"/>
+    <tableColumn id="3" name="Prioridade" dataDxfId="37"/>
+    <tableColumn id="4" name="Versão do Requisito" dataDxfId="36"/>
+    <tableColumn id="7" name="Tipo Requisito " dataDxfId="35"/>
+    <tableColumn id="8" name="Complexidade" dataDxfId="34"/>
+    <tableColumn id="9" name="Solicitante" dataDxfId="33"/>
+    <tableColumn id="10" name="Responsável" dataDxfId="32"/>
+    <tableColumn id="11" name="Validador" dataDxfId="31"/>
+    <tableColumn id="12" name="Critérios de Aceitação" dataDxfId="30"/>
+    <tableColumn id="13" name="Dependência Internas entre Requisitos  (rastreabilidade)" dataDxfId="29"/>
+    <tableColumn id="14" name="Dependências Externas entre Requisitos (Rastreabilidade)" dataDxfId="28"/>
+    <tableColumn id="15" name="Data da Criação" dataDxfId="27"/>
+    <tableColumn id="16" name="Data Última Alteração" dataDxfId="26"/>
+    <tableColumn id="17" name="Responsável pela última alteração" dataDxfId="25"/>
+    <tableColumn id="18" name="Motivo Última Alteração" dataDxfId="24"/>
+    <tableColumn id="19" name="Documentação de Apoio" dataDxfId="23"/>
+    <tableColumn id="20" name="Situação do Requisito" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2125,23 +2652,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2177,23 +2687,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2369,11 +2862,3273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A413DD19-7FC1-4D28-A362-7FCB5F795D6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Planilha3"/>
   <dimension ref="B1:V109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="J99" sqref="J99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="100.42578125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="32" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="32" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="32" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" style="32" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="30.42578125" style="32" customWidth="1"/>
+    <col min="16" max="16" width="16" style="32" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="25.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="10"/>
+      <c r="T2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="1"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+    </row>
+    <row r="4" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="6"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="14"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+    </row>
+    <row r="6" spans="2:22" s="15" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="16"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="17"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="19"/>
+    </row>
+    <row r="7" spans="2:22" s="25" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="U7" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" s="28" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="26">
+        <v>1</v>
+      </c>
+      <c r="C8" s="27">
+        <v>1</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="53"/>
+    </row>
+    <row r="9" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="26">
+        <v>3</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="26">
+        <v>4</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29">
+        <v>5</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="26">
+        <v>6</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="26">
+        <v>7</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29">
+        <v>8</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="26">
+        <v>9</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="26">
+        <v>10</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="29">
+        <v>11</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="26">
+        <v>12</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="26">
+        <v>13</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="29">
+        <v>14</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="91" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="26">
+        <v>15</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="91" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="26">
+        <v>16</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="29">
+        <v>17</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="91" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="26">
+        <v>18</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="91"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="26">
+        <v>19</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="62"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+    </row>
+    <row r="27" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="29">
+        <v>20</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="62"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+    </row>
+    <row r="28" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="26">
+        <v>21</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+    </row>
+    <row r="29" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="26">
+        <v>22</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+    </row>
+    <row r="30" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="29">
+        <v>23</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+    </row>
+    <row r="31" spans="2:21" s="28" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="26">
+        <v>24</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+    </row>
+    <row r="32" spans="2:21" s="28" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="26">
+        <v>25</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" s="28" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="29">
+        <v>26</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="26">
+        <v>27</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="26">
+        <v>28</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="29">
+        <v>29</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+    </row>
+    <row r="37" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="26">
+        <v>30</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+    </row>
+    <row r="38" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="26">
+        <v>31</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="49"/>
+    </row>
+    <row r="39" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="29">
+        <v>32</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="49"/>
+    </row>
+    <row r="40" spans="2:21" s="28" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="26">
+        <v>33</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+    </row>
+    <row r="41" spans="2:21" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="26">
+        <v>34</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="49"/>
+      <c r="U41" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="29">
+        <v>35</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="26">
+        <v>36</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="26">
+        <v>37</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="49"/>
+      <c r="U44" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="29">
+        <v>38</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="26">
+        <v>39</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="26">
+        <v>40</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="49"/>
+      <c r="R47" s="49"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="49"/>
+      <c r="U47" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="29">
+        <v>41</v>
+      </c>
+      <c r="C48" s="27">
+        <v>2</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="49"/>
+      <c r="R48" s="49"/>
+      <c r="S48" s="49"/>
+      <c r="T48" s="49"/>
+      <c r="U48" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="26">
+        <v>42</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="49"/>
+      <c r="R49" s="49"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="49"/>
+      <c r="U49" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="26">
+        <v>43</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="49"/>
+      <c r="U50" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="29">
+        <v>44</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="49"/>
+      <c r="R51" s="49"/>
+      <c r="S51" s="49"/>
+      <c r="T51" s="49"/>
+      <c r="U51" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="26">
+        <v>45</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="49"/>
+      <c r="R52" s="49"/>
+      <c r="S52" s="49"/>
+      <c r="T52" s="49"/>
+      <c r="U52" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="26">
+        <v>46</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="49"/>
+      <c r="P53" s="49"/>
+      <c r="Q53" s="49"/>
+      <c r="R53" s="49"/>
+      <c r="S53" s="49"/>
+      <c r="T53" s="49"/>
+      <c r="U53" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="29">
+        <v>47</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="49"/>
+      <c r="R54" s="49"/>
+      <c r="S54" s="49"/>
+      <c r="T54" s="49"/>
+      <c r="U54" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="26">
+        <v>48</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="49"/>
+      <c r="S55" s="49"/>
+      <c r="T55" s="49"/>
+      <c r="U55" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="26">
+        <v>49</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="49"/>
+      <c r="R56" s="49"/>
+      <c r="S56" s="49"/>
+      <c r="T56" s="49"/>
+      <c r="U56" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="29">
+        <v>50</v>
+      </c>
+      <c r="C57" s="27">
+        <v>3</v>
+      </c>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="49"/>
+      <c r="R57" s="49"/>
+      <c r="S57" s="49"/>
+      <c r="T57" s="49"/>
+      <c r="U57" s="49"/>
+    </row>
+    <row r="58" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="26">
+        <v>51</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="49"/>
+      <c r="R58" s="49"/>
+      <c r="S58" s="49"/>
+      <c r="T58" s="49"/>
+      <c r="U58" s="49"/>
+    </row>
+    <row r="59" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="26">
+        <v>52</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="49"/>
+      <c r="S59" s="49"/>
+      <c r="T59" s="49"/>
+      <c r="U59" s="49"/>
+    </row>
+    <row r="60" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="29">
+        <v>53</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="63"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="49"/>
+      <c r="R60" s="49"/>
+      <c r="S60" s="49"/>
+      <c r="T60" s="49"/>
+      <c r="U60" s="49"/>
+    </row>
+    <row r="61" spans="2:21" s="28" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="26">
+        <v>54</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="59"/>
+      <c r="O61" s="59"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="59"/>
+      <c r="S61" s="59"/>
+      <c r="T61" s="59"/>
+      <c r="U61" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="26">
+        <v>55</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
+      <c r="R62" s="49"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="29">
+        <v>56</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+      <c r="S63" s="49"/>
+      <c r="T63" s="49"/>
+      <c r="U63" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="26">
+        <v>57</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="49"/>
+      <c r="S64" s="49"/>
+      <c r="T64" s="49"/>
+      <c r="U64" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="26">
+        <v>58</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="49"/>
+      <c r="R65" s="49"/>
+      <c r="S65" s="49"/>
+      <c r="T65" s="49"/>
+      <c r="U65" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="29">
+        <v>59</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="49"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="49"/>
+      <c r="U66" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="26">
+        <v>60</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="49"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="49"/>
+      <c r="Q67" s="49"/>
+      <c r="R67" s="49"/>
+      <c r="S67" s="49"/>
+      <c r="T67" s="49"/>
+      <c r="U67" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="26">
+        <v>61</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="49"/>
+      <c r="R68" s="49"/>
+      <c r="S68" s="49"/>
+      <c r="T68" s="49"/>
+      <c r="U68" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="29">
+        <v>62</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="49"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="49"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="49"/>
+      <c r="T69" s="49"/>
+      <c r="U69" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="26">
+        <v>63</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="49"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="49"/>
+      <c r="U70" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="26">
+        <v>64</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="49"/>
+      <c r="O71" s="49"/>
+      <c r="P71" s="49"/>
+      <c r="Q71" s="49"/>
+      <c r="R71" s="49"/>
+      <c r="S71" s="49"/>
+      <c r="T71" s="49"/>
+      <c r="U71" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="29">
+        <v>65</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="49"/>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="49"/>
+      <c r="R72" s="49"/>
+      <c r="S72" s="49"/>
+      <c r="T72" s="49"/>
+      <c r="U72" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="26">
+        <v>66</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D73" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="49"/>
+      <c r="J73" s="49"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="49"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="49"/>
+      <c r="O73" s="49"/>
+      <c r="P73" s="49"/>
+      <c r="Q73" s="49"/>
+      <c r="R73" s="49"/>
+      <c r="S73" s="49"/>
+      <c r="T73" s="49"/>
+      <c r="U73" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="26">
+        <v>67</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" s="49"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="49"/>
+      <c r="Q74" s="49"/>
+      <c r="R74" s="49"/>
+      <c r="S74" s="49"/>
+      <c r="T74" s="49"/>
+      <c r="U74" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="29">
+        <v>68</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="49"/>
+      <c r="P75" s="49"/>
+      <c r="Q75" s="49"/>
+      <c r="R75" s="49"/>
+      <c r="S75" s="49"/>
+      <c r="T75" s="49"/>
+      <c r="U75" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="26">
+        <v>69</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="49"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="49"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="49"/>
+      <c r="O76" s="49"/>
+      <c r="P76" s="49"/>
+      <c r="Q76" s="49"/>
+      <c r="R76" s="49"/>
+      <c r="S76" s="49"/>
+      <c r="T76" s="49"/>
+      <c r="U76" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="26">
+        <v>70</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" s="49"/>
+      <c r="J77" s="49"/>
+      <c r="K77" s="49"/>
+      <c r="L77" s="49"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="49"/>
+      <c r="O77" s="49"/>
+      <c r="P77" s="49"/>
+      <c r="Q77" s="49"/>
+      <c r="R77" s="49"/>
+      <c r="S77" s="49"/>
+      <c r="T77" s="49"/>
+      <c r="U77" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="29">
+        <v>71</v>
+      </c>
+      <c r="C78" s="27">
+        <v>4</v>
+      </c>
+      <c r="D78" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="49"/>
+      <c r="J78" s="49"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="49"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="49"/>
+      <c r="O78" s="49"/>
+      <c r="P78" s="49"/>
+      <c r="Q78" s="49"/>
+      <c r="R78" s="49"/>
+      <c r="S78" s="49"/>
+      <c r="T78" s="49"/>
+      <c r="U78" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="26">
+        <v>72</v>
+      </c>
+      <c r="C79" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" s="62"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" s="49"/>
+      <c r="J79" s="49"/>
+      <c r="K79" s="49"/>
+      <c r="L79" s="49"/>
+      <c r="M79" s="49"/>
+      <c r="N79" s="49"/>
+      <c r="O79" s="49"/>
+      <c r="P79" s="49"/>
+      <c r="Q79" s="49"/>
+      <c r="R79" s="49"/>
+      <c r="S79" s="49"/>
+      <c r="T79" s="49"/>
+      <c r="U79" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="26">
+        <v>73</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="62"/>
+      <c r="E80" s="49"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" s="49"/>
+      <c r="J80" s="49"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="49"/>
+      <c r="M80" s="49"/>
+      <c r="N80" s="49"/>
+      <c r="O80" s="49"/>
+      <c r="P80" s="49"/>
+      <c r="Q80" s="49"/>
+      <c r="R80" s="49"/>
+      <c r="S80" s="49"/>
+      <c r="T80" s="49"/>
+      <c r="U80" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="29">
+        <v>74</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="49"/>
+      <c r="E81" s="49"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" s="49"/>
+      <c r="J81" s="49"/>
+      <c r="K81" s="49"/>
+      <c r="L81" s="49"/>
+      <c r="M81" s="49"/>
+      <c r="N81" s="49"/>
+      <c r="O81" s="49"/>
+      <c r="P81" s="49"/>
+      <c r="Q81" s="49"/>
+      <c r="R81" s="49"/>
+      <c r="S81" s="49"/>
+      <c r="T81" s="49"/>
+      <c r="U81" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="26">
+        <v>75</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="49"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" s="49"/>
+      <c r="J82" s="49"/>
+      <c r="K82" s="49"/>
+      <c r="L82" s="49"/>
+      <c r="M82" s="49"/>
+      <c r="N82" s="49"/>
+      <c r="O82" s="49"/>
+      <c r="P82" s="49"/>
+      <c r="Q82" s="49"/>
+      <c r="R82" s="49"/>
+      <c r="S82" s="49"/>
+      <c r="T82" s="49"/>
+      <c r="U82" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="26">
+        <v>76</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" s="49"/>
+      <c r="J83" s="49"/>
+      <c r="K83" s="49"/>
+      <c r="L83" s="49"/>
+      <c r="M83" s="49"/>
+      <c r="N83" s="49"/>
+      <c r="O83" s="49"/>
+      <c r="P83" s="49"/>
+      <c r="Q83" s="49"/>
+      <c r="R83" s="49"/>
+      <c r="S83" s="49"/>
+      <c r="T83" s="49"/>
+      <c r="U83" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="29">
+        <v>77</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="49"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="49"/>
+      <c r="O84" s="49"/>
+      <c r="P84" s="49"/>
+      <c r="Q84" s="49"/>
+      <c r="R84" s="49"/>
+      <c r="S84" s="49"/>
+      <c r="T84" s="49"/>
+      <c r="U84" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="26">
+        <v>78</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="49"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="49"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="49"/>
+      <c r="O85" s="49"/>
+      <c r="P85" s="49"/>
+      <c r="Q85" s="49"/>
+      <c r="R85" s="49"/>
+      <c r="S85" s="49"/>
+      <c r="T85" s="49"/>
+      <c r="U85" s="49"/>
+    </row>
+    <row r="86" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="26">
+        <v>79</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="49"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="49"/>
+      <c r="O86" s="49"/>
+      <c r="P86" s="49"/>
+      <c r="Q86" s="49"/>
+      <c r="R86" s="49"/>
+      <c r="S86" s="49"/>
+      <c r="T86" s="49"/>
+      <c r="U86" s="49"/>
+    </row>
+    <row r="87" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="29">
+        <v>80</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="49"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="49"/>
+      <c r="L87" s="49"/>
+      <c r="M87" s="49"/>
+      <c r="N87" s="49"/>
+      <c r="O87" s="49"/>
+      <c r="P87" s="49"/>
+      <c r="Q87" s="49"/>
+      <c r="R87" s="49"/>
+      <c r="S87" s="49"/>
+      <c r="T87" s="49"/>
+      <c r="U87" s="49"/>
+    </row>
+    <row r="88" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="26">
+        <v>81</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" s="49"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="49"/>
+      <c r="M88" s="49"/>
+      <c r="N88" s="49"/>
+      <c r="O88" s="49"/>
+      <c r="P88" s="49"/>
+      <c r="Q88" s="49"/>
+      <c r="R88" s="49"/>
+      <c r="S88" s="49"/>
+      <c r="T88" s="49"/>
+      <c r="U88" s="49"/>
+    </row>
+    <row r="89" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="26">
+        <v>82</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D89" s="49"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="49"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="49"/>
+      <c r="O89" s="49"/>
+      <c r="P89" s="49"/>
+      <c r="Q89" s="49"/>
+      <c r="R89" s="49"/>
+      <c r="S89" s="49"/>
+      <c r="T89" s="49"/>
+      <c r="U89" s="49"/>
+    </row>
+    <row r="90" spans="2:21" s="28" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="29">
+        <v>83</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D90" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="E90" s="59"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="59"/>
+      <c r="L90" s="59"/>
+      <c r="M90" s="59"/>
+      <c r="N90" s="59"/>
+      <c r="O90" s="59"/>
+      <c r="P90" s="59"/>
+      <c r="Q90" s="59"/>
+      <c r="R90" s="59"/>
+      <c r="S90" s="59"/>
+      <c r="T90" s="59"/>
+      <c r="U90" s="59"/>
+    </row>
+    <row r="91" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="26">
+        <v>84</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" s="49"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" s="49"/>
+      <c r="J91" s="49"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="49"/>
+      <c r="M91" s="49"/>
+      <c r="N91" s="49"/>
+      <c r="O91" s="49"/>
+      <c r="P91" s="49"/>
+      <c r="Q91" s="49"/>
+      <c r="R91" s="49"/>
+      <c r="S91" s="49"/>
+      <c r="T91" s="49"/>
+      <c r="U91" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="26">
+        <v>85</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="49"/>
+      <c r="N92" s="49"/>
+      <c r="O92" s="49"/>
+      <c r="P92" s="49"/>
+      <c r="Q92" s="49"/>
+      <c r="R92" s="49"/>
+      <c r="S92" s="49"/>
+      <c r="T92" s="49"/>
+      <c r="U92" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="29">
+        <v>86</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" s="49"/>
+      <c r="J93" s="49"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="49"/>
+      <c r="O93" s="49"/>
+      <c r="P93" s="49"/>
+      <c r="Q93" s="49"/>
+      <c r="R93" s="49"/>
+      <c r="S93" s="49"/>
+      <c r="T93" s="49"/>
+      <c r="U93" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="26">
+        <v>87</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" s="49"/>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49"/>
+      <c r="L94" s="49"/>
+      <c r="M94" s="49"/>
+      <c r="N94" s="49"/>
+      <c r="O94" s="49"/>
+      <c r="P94" s="49"/>
+      <c r="Q94" s="49"/>
+      <c r="R94" s="49"/>
+      <c r="S94" s="49"/>
+      <c r="T94" s="49"/>
+      <c r="U94" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="26">
+        <v>88</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D95" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="E95" s="49"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" s="49"/>
+      <c r="J95" s="49"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="49"/>
+      <c r="M95" s="49"/>
+      <c r="N95" s="49"/>
+      <c r="O95" s="49"/>
+      <c r="P95" s="49"/>
+      <c r="Q95" s="49"/>
+      <c r="R95" s="49"/>
+      <c r="S95" s="49"/>
+      <c r="T95" s="49"/>
+      <c r="U95" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="29">
+        <v>89</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96" s="49"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" s="49"/>
+      <c r="J96" s="49"/>
+      <c r="K96" s="49"/>
+      <c r="L96" s="49"/>
+      <c r="M96" s="49"/>
+      <c r="N96" s="49"/>
+      <c r="O96" s="49"/>
+      <c r="P96" s="49"/>
+      <c r="Q96" s="49"/>
+      <c r="R96" s="49"/>
+      <c r="S96" s="49"/>
+      <c r="T96" s="49"/>
+      <c r="U96" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="26">
+        <v>90</v>
+      </c>
+      <c r="C97" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="E97" s="49"/>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49"/>
+      <c r="H97" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" s="49"/>
+      <c r="J97" s="49"/>
+      <c r="K97" s="49"/>
+      <c r="L97" s="49"/>
+      <c r="M97" s="49"/>
+      <c r="N97" s="49"/>
+      <c r="O97" s="49"/>
+      <c r="P97" s="49"/>
+      <c r="Q97" s="49"/>
+      <c r="R97" s="49"/>
+      <c r="S97" s="49"/>
+      <c r="T97" s="49"/>
+      <c r="U97" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="26">
+        <v>91</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="E98" s="49"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49"/>
+      <c r="H98" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I98" s="49"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="49"/>
+      <c r="L98" s="49"/>
+      <c r="M98" s="49"/>
+      <c r="N98" s="49"/>
+      <c r="O98" s="49"/>
+      <c r="P98" s="49"/>
+      <c r="Q98" s="49"/>
+      <c r="R98" s="49"/>
+      <c r="S98" s="49"/>
+      <c r="T98" s="49"/>
+      <c r="U98" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="29">
+        <v>92</v>
+      </c>
+      <c r="C99" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99" s="49"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49"/>
+      <c r="H99" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" s="49"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="49"/>
+      <c r="L99" s="49"/>
+      <c r="M99" s="49"/>
+      <c r="N99" s="49"/>
+      <c r="O99" s="49"/>
+      <c r="P99" s="49"/>
+      <c r="Q99" s="49"/>
+      <c r="R99" s="49"/>
+      <c r="S99" s="49"/>
+      <c r="T99" s="49"/>
+      <c r="U99" s="59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="26">
+        <v>93</v>
+      </c>
+      <c r="C100" s="27"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I100" s="49"/>
+      <c r="J100" s="49"/>
+      <c r="K100" s="49"/>
+      <c r="L100" s="49"/>
+      <c r="M100" s="49"/>
+      <c r="N100" s="49"/>
+      <c r="O100" s="49"/>
+      <c r="P100" s="49"/>
+      <c r="Q100" s="49"/>
+      <c r="R100" s="49"/>
+      <c r="S100" s="49"/>
+      <c r="T100" s="49"/>
+      <c r="U100" s="49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="26">
+        <v>94</v>
+      </c>
+      <c r="C101" s="30"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="49"/>
+      <c r="G101" s="49"/>
+      <c r="H101" s="49"/>
+      <c r="I101" s="49"/>
+      <c r="J101" s="49"/>
+      <c r="K101" s="49"/>
+      <c r="L101" s="49"/>
+      <c r="M101" s="49"/>
+      <c r="N101" s="49"/>
+      <c r="O101" s="49"/>
+      <c r="P101" s="49"/>
+      <c r="Q101" s="49"/>
+      <c r="R101" s="49"/>
+      <c r="S101" s="49"/>
+      <c r="T101" s="49"/>
+      <c r="U101" s="49"/>
+    </row>
+    <row r="102" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="29">
+        <v>95</v>
+      </c>
+      <c r="C102" s="30"/>
+      <c r="D102" s="49"/>
+      <c r="E102" s="49"/>
+      <c r="F102" s="49"/>
+      <c r="G102" s="49"/>
+      <c r="H102" s="49"/>
+      <c r="I102" s="49"/>
+      <c r="J102" s="49"/>
+      <c r="K102" s="49"/>
+      <c r="L102" s="49"/>
+      <c r="M102" s="49"/>
+      <c r="N102" s="49"/>
+      <c r="O102" s="49"/>
+      <c r="P102" s="49"/>
+      <c r="Q102" s="49"/>
+      <c r="R102" s="49"/>
+      <c r="S102" s="49"/>
+      <c r="T102" s="49"/>
+      <c r="U102" s="49"/>
+    </row>
+    <row r="103" spans="2:21" s="28" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="26">
+        <v>96</v>
+      </c>
+      <c r="C103" s="31"/>
+      <c r="D103" s="49"/>
+      <c r="E103" s="49"/>
+      <c r="F103" s="49"/>
+      <c r="G103" s="49"/>
+      <c r="H103" s="49"/>
+      <c r="I103" s="49"/>
+      <c r="J103" s="49"/>
+      <c r="K103" s="49"/>
+      <c r="L103" s="49"/>
+      <c r="M103" s="49"/>
+      <c r="N103" s="49"/>
+      <c r="O103" s="49"/>
+      <c r="P103" s="49"/>
+      <c r="Q103" s="49"/>
+      <c r="R103" s="49"/>
+      <c r="S103" s="49"/>
+      <c r="T103" s="49"/>
+      <c r="U103" s="49"/>
+    </row>
+    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D104" s="49"/>
+      <c r="E104" s="49"/>
+      <c r="F104" s="49"/>
+      <c r="G104" s="49"/>
+      <c r="H104" s="49"/>
+      <c r="I104" s="49"/>
+      <c r="J104" s="49"/>
+      <c r="K104" s="49"/>
+      <c r="L104" s="49"/>
+      <c r="M104" s="49"/>
+      <c r="N104" s="49"/>
+      <c r="O104" s="49"/>
+      <c r="P104" s="49"/>
+      <c r="Q104" s="49"/>
+      <c r="R104" s="49"/>
+      <c r="S104" s="49"/>
+      <c r="T104" s="49"/>
+      <c r="U104" s="49"/>
+    </row>
+    <row r="105" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D105" s="49"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="49"/>
+      <c r="I105" s="49"/>
+      <c r="J105" s="49"/>
+      <c r="K105" s="49"/>
+      <c r="L105" s="49"/>
+      <c r="M105" s="49"/>
+      <c r="N105" s="49"/>
+      <c r="O105" s="49"/>
+      <c r="P105" s="49"/>
+      <c r="Q105" s="49"/>
+      <c r="R105" s="49"/>
+      <c r="S105" s="49"/>
+      <c r="T105" s="49"/>
+      <c r="U105" s="49"/>
+    </row>
+    <row r="106" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D106" s="49"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="49"/>
+      <c r="H106" s="49"/>
+      <c r="I106" s="49"/>
+      <c r="J106" s="49"/>
+      <c r="K106" s="49"/>
+      <c r="L106" s="49"/>
+      <c r="M106" s="49"/>
+      <c r="N106" s="49"/>
+      <c r="O106" s="49"/>
+      <c r="P106" s="49"/>
+      <c r="Q106" s="49"/>
+      <c r="R106" s="49"/>
+      <c r="S106" s="49"/>
+      <c r="T106" s="49"/>
+      <c r="U106" s="49"/>
+    </row>
+    <row r="107" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D107" s="49"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="49"/>
+      <c r="H107" s="49"/>
+      <c r="I107" s="49"/>
+      <c r="J107" s="49"/>
+      <c r="K107" s="49"/>
+      <c r="L107" s="49"/>
+      <c r="M107" s="49"/>
+      <c r="N107" s="49"/>
+      <c r="O107" s="49"/>
+      <c r="P107" s="49"/>
+      <c r="Q107" s="49"/>
+      <c r="R107" s="49"/>
+      <c r="S107" s="49"/>
+      <c r="T107" s="49"/>
+      <c r="U107" s="49"/>
+    </row>
+    <row r="108" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D108" s="49"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="49"/>
+      <c r="I108" s="49"/>
+      <c r="J108" s="49"/>
+      <c r="K108" s="49"/>
+      <c r="L108" s="49"/>
+      <c r="M108" s="49"/>
+      <c r="N108" s="49"/>
+      <c r="O108" s="49"/>
+      <c r="P108" s="49"/>
+      <c r="Q108" s="49"/>
+      <c r="R108" s="49"/>
+      <c r="S108" s="49"/>
+      <c r="T108" s="49"/>
+      <c r="U108" s="49"/>
+    </row>
+    <row r="109" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="N109" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E2:N3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="E4:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P6"/>
+  </mergeCells>
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U8:U108">
+      <formula1>"Proposto,Aprovado,Projetado,Implementado,Verificado, Entregue, Eliminado, Rejeitado"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H94:H100 H40:H56 H91:H92 H31:H38 H8:H26 H61:H84">
+      <formula1>$T$1:$T$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I40:I56 I8:I38 I61:I108">
+      <formula1>"Máxima,Alta,Média,Baixa,Mínima"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Classificação: Interna</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Planilha2"/>
+  <dimension ref="B1:V109"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight" activeCell="I104" sqref="I104"/>
@@ -2427,22 +6182,22 @@
       <c r="U1" s="6"/>
     </row>
     <row r="2" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="70" t="s">
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="70"/>
+      <c r="P2" s="74"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="10"/>
       <c r="T2" s="11" t="s">
@@ -2451,40 +6206,40 @@
       <c r="U2" s="6"/>
     </row>
     <row r="3" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="67"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="72"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="76"/>
       <c r="Q3" s="1"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
     </row>
     <row r="4" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="82" t="s">
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="82"/>
+      <c r="P4" s="86"/>
       <c r="Q4" s="6"/>
       <c r="S4" s="12"/>
       <c r="T4" s="13"/>
@@ -2493,18 +6248,18 @@
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="D5" s="47"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="88"/>
       <c r="Q5" s="14"/>
       <c r="S5" s="12"/>
       <c r="T5" s="13"/>
@@ -2513,18 +6268,18 @@
     <row r="6" spans="2:22" s="15" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="16"/>
       <c r="D6" s="48"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="86"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="90"/>
       <c r="Q6" s="17"/>
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
@@ -2762,7 +6517,7 @@
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
       <c r="G13" s="49"/>
-      <c r="H13" s="90" t="s">
+      <c r="H13" s="67" t="s">
         <v>20</v>
       </c>
       <c r="I13" s="49"/>
@@ -2794,7 +6549,7 @@
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
       <c r="G14" s="49"/>
-      <c r="H14" s="90" t="s">
+      <c r="H14" s="67" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="49"/>
@@ -2823,10 +6578,10 @@
       <c r="D15" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="89" t="s">
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="49"/>
@@ -2855,10 +6610,10 @@
       <c r="D16" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89" t="s">
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="49"/>
@@ -2887,10 +6642,10 @@
       <c r="D17" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="89" t="s">
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="49"/>
@@ -2919,10 +6674,10 @@
       <c r="D18" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="89" t="s">
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66" t="s">
         <v>20</v>
       </c>
       <c r="I18" s="49"/>
@@ -2951,10 +6706,10 @@
       <c r="D19" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="89" t="s">
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66" t="s">
         <v>20</v>
       </c>
       <c r="I19" s="49"/>
@@ -2983,10 +6738,10 @@
       <c r="D20" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="89" t="s">
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="49"/>
@@ -3015,10 +6770,10 @@
       <c r="D21" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="89" t="s">
+      <c r="E21" s="64"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="49"/>
@@ -3047,10 +6802,10 @@
       <c r="D22" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="E22" s="87"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="89" t="s">
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="49"/>
@@ -3079,10 +6834,10 @@
       <c r="D23" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="89" t="s">
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="66" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="49"/>
@@ -3111,10 +6866,10 @@
       <c r="D24" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="87"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="89" t="s">
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="66" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="49"/>
@@ -3143,10 +6898,10 @@
       <c r="D25" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="89" t="s">
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="66" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="49"/>
@@ -3173,10 +6928,10 @@
         <v>60</v>
       </c>
       <c r="D26" s="62"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="89" t="s">
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="66" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="49"/>
@@ -3201,10 +6956,10 @@
         <v>61</v>
       </c>
       <c r="D27" s="62"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="89"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
       <c r="I27" s="49"/>
       <c r="J27" s="49"/>
       <c r="K27" s="49"/>
@@ -5629,13 +9384,13 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I40:I56 I8:I38 I61:I108" xr:uid="{CCF0E93B-E701-4254-9659-A3DB4D311139}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I40:I56 I8:I38 I61:I108">
       <formula1>"Máxima,Alta,Média,Baixa,Mínima"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H94:H100 H40:H56 H91:H92 H31:H38 H8:H26 H61:H84" xr:uid="{C6DF508E-944E-4154-8F9D-531F7223BA80}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H94:H100 H40:H56 H91:H92 H31:H38 H8:H26 H61:H84">
       <formula1>$T$1:$T$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U8:U108" xr:uid="{896C6ADC-A470-4136-B4BB-7A8530057896}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U8:U108">
       <formula1>"Proposto,Aprovado,Projetado,Implementado,Verificado, Entregue, Eliminado, Rejeitado"</formula1>
     </dataValidation>
   </dataValidations>
